--- a/Data_Redundancy.xlsx
+++ b/Data_Redundancy.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
   <si>
     <t xml:space="preserve">Assume </t>
   </si>
@@ -393,18 +393,28 @@
   </si>
   <si>
     <t>A10100</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>tag_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,13 +440,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -448,7 +481,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="1683">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -550,12 +583,1603 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="1683">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -606,6 +2230,797 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -656,6 +3071,797 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -987,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1001,6 +4207,24 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="2:26">
       <c r="B4" t="s">
@@ -7623,6 +10847,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7633,315 +10858,1688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV1"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:CV1"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="10" max="10" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="10.83203125" style="5"/>
+    <col min="14" max="14" width="10.83203125" style="6"/>
+    <col min="15" max="15" width="10.83203125" style="7"/>
+    <col min="16" max="16" width="10.83203125" style="6"/>
+    <col min="17" max="17" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:100">
-      <c r="A1">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>8</v>
-      </c>
-      <c r="C1">
-        <v>9</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>10</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6">
         <v>12</v>
       </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>11</v>
-      </c>
-      <c r="J1">
-        <v>12</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="L1">
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <v>5</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-      <c r="O1">
-        <v>9</v>
-      </c>
-      <c r="P1">
-        <v>9</v>
-      </c>
-      <c r="Q1">
-        <v>5</v>
+      <c r="O1" s="7">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>15</v>
       </c>
       <c r="R1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S1">
-        <v>6</v>
-      </c>
-      <c r="T1">
-        <v>8</v>
-      </c>
-      <c r="U1">
-        <v>5</v>
-      </c>
-      <c r="V1">
-        <v>5</v>
-      </c>
-      <c r="W1">
-        <v>7</v>
-      </c>
-      <c r="X1">
-        <v>4</v>
-      </c>
-      <c r="Y1">
-        <v>5</v>
-      </c>
-      <c r="Z1">
-        <v>3</v>
-      </c>
-      <c r="AA1">
-        <v>5</v>
-      </c>
-      <c r="AB1">
-        <v>8</v>
-      </c>
-      <c r="AC1">
-        <v>4</v>
-      </c>
-      <c r="AD1">
-        <v>9</v>
-      </c>
-      <c r="AE1">
-        <v>8</v>
-      </c>
-      <c r="AF1">
-        <v>12</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>4</v>
-      </c>
-      <c r="AI1">
-        <v>8</v>
-      </c>
-      <c r="AJ1">
-        <v>3</v>
-      </c>
-      <c r="AK1">
-        <v>6</v>
-      </c>
-      <c r="AL1">
-        <v>8</v>
-      </c>
-      <c r="AM1">
-        <v>10</v>
-      </c>
-      <c r="AN1">
-        <v>3</v>
-      </c>
-      <c r="AO1">
-        <v>2</v>
-      </c>
-      <c r="AP1">
-        <v>8</v>
-      </c>
-      <c r="AQ1">
-        <v>4</v>
-      </c>
-      <c r="AR1">
-        <v>4</v>
-      </c>
-      <c r="AS1">
-        <v>12</v>
-      </c>
-      <c r="AT1">
-        <v>7</v>
-      </c>
-      <c r="AU1">
-        <v>6</v>
-      </c>
-      <c r="AV1">
-        <v>4</v>
-      </c>
-      <c r="AW1">
-        <v>3</v>
-      </c>
-      <c r="AX1">
-        <v>8</v>
-      </c>
-      <c r="AY1">
-        <v>8</v>
-      </c>
-      <c r="AZ1">
-        <v>14</v>
-      </c>
-      <c r="BA1">
-        <v>6</v>
-      </c>
-      <c r="BB1">
-        <v>8</v>
-      </c>
-      <c r="BC1">
-        <v>6</v>
-      </c>
-      <c r="BD1">
-        <v>9</v>
-      </c>
-      <c r="BE1">
-        <v>8</v>
-      </c>
-      <c r="BF1">
-        <v>5</v>
-      </c>
-      <c r="BG1">
-        <v>5</v>
-      </c>
-      <c r="BH1">
-        <v>5</v>
-      </c>
-      <c r="BI1">
-        <v>6</v>
-      </c>
-      <c r="BJ1">
-        <v>6</v>
-      </c>
-      <c r="BK1">
-        <v>6</v>
-      </c>
-      <c r="BL1">
-        <v>6</v>
-      </c>
-      <c r="BM1">
-        <v>2</v>
-      </c>
-      <c r="BN1">
-        <v>5</v>
-      </c>
-      <c r="BO1">
-        <v>7</v>
-      </c>
-      <c r="BP1">
-        <v>11</v>
-      </c>
-      <c r="BQ1">
-        <v>6</v>
-      </c>
-      <c r="BR1">
-        <v>6</v>
-      </c>
-      <c r="BS1">
-        <v>5</v>
-      </c>
-      <c r="BT1">
-        <v>11</v>
-      </c>
-      <c r="BU1">
-        <v>7</v>
-      </c>
-      <c r="BV1">
-        <v>3</v>
-      </c>
-      <c r="BW1">
-        <v>3</v>
-      </c>
-      <c r="BX1">
-        <v>6</v>
-      </c>
-      <c r="BY1">
-        <v>5</v>
-      </c>
-      <c r="BZ1">
-        <v>11</v>
-      </c>
-      <c r="CA1">
-        <v>9</v>
-      </c>
-      <c r="CB1">
-        <v>10</v>
-      </c>
-      <c r="CC1">
-        <v>10</v>
-      </c>
-      <c r="CD1">
-        <v>9</v>
-      </c>
-      <c r="CE1">
-        <v>4</v>
-      </c>
-      <c r="CF1">
-        <v>11</v>
-      </c>
-      <c r="CG1">
-        <v>8</v>
-      </c>
-      <c r="CH1">
-        <v>2</v>
-      </c>
-      <c r="CI1">
-        <v>9</v>
-      </c>
-      <c r="CJ1">
-        <v>5</v>
-      </c>
-      <c r="CK1">
-        <v>8</v>
-      </c>
-      <c r="CL1">
-        <v>5</v>
-      </c>
-      <c r="CM1">
-        <v>6</v>
-      </c>
-      <c r="CN1">
-        <v>9</v>
-      </c>
-      <c r="CO1">
-        <v>7</v>
-      </c>
-      <c r="CP1">
-        <v>13</v>
-      </c>
-      <c r="CQ1">
-        <v>4</v>
-      </c>
-      <c r="CR1">
-        <v>10</v>
-      </c>
-      <c r="CS1">
-        <v>8</v>
-      </c>
-      <c r="CT1">
-        <v>6</v>
-      </c>
-      <c r="CU1">
-        <v>11</v>
-      </c>
-      <c r="CV1">
-        <v>9</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="2"/>
+      <c r="N2"/>
+      <c r="O2" s="3"/>
+      <c r="P2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="N3"/>
+      <c r="O3" s="3"/>
+      <c r="P3"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="9"/>
+      <c r="L4" s="2"/>
+      <c r="N4"/>
+      <c r="O4" s="3"/>
+      <c r="P4"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="N5"/>
+      <c r="O5" s="3"/>
+      <c r="P5"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="N6"/>
+      <c r="O6" s="3"/>
+      <c r="P6"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="N7"/>
+      <c r="O7" s="3"/>
+      <c r="P7"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="2"/>
+      <c r="N8"/>
+      <c r="O8" s="3"/>
+      <c r="P8"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="N9"/>
+      <c r="O9" s="3"/>
+      <c r="P9"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="N10"/>
+      <c r="O10" s="3"/>
+      <c r="P10"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="N11"/>
+      <c r="O11" s="3"/>
+      <c r="P11"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="N12"/>
+      <c r="O12" s="3"/>
+      <c r="P12"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="N13"/>
+      <c r="O13" s="3"/>
+      <c r="P13"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="2"/>
+      <c r="N14"/>
+      <c r="O14" s="3"/>
+      <c r="P14"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="N16"/>
+      <c r="O16" s="3"/>
+      <c r="P16"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="2"/>
+      <c r="N17"/>
+      <c r="O17" s="3"/>
+      <c r="P17"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18"/>
+      <c r="G18" s="2"/>
+      <c r="H18"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="N18"/>
+      <c r="O18" s="3"/>
+      <c r="P18"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="2"/>
+      <c r="N19"/>
+      <c r="O19" s="3"/>
+      <c r="P19"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
+      <c r="J20" s="9"/>
+      <c r="L20" s="2"/>
+      <c r="N20"/>
+      <c r="O20" s="3"/>
+      <c r="P20"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="N21"/>
+      <c r="O21" s="3"/>
+      <c r="P21"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22"/>
+      <c r="G22" s="2"/>
+      <c r="H22"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="N22"/>
+      <c r="O22" s="3"/>
+      <c r="P22"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="N23"/>
+      <c r="O23" s="3"/>
+      <c r="P23"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="N24"/>
+      <c r="O24" s="3"/>
+      <c r="P24"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="9"/>
+      <c r="L25" s="2"/>
+      <c r="N25"/>
+      <c r="O25" s="3"/>
+      <c r="P25"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="H26"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="N26"/>
+      <c r="O26" s="3"/>
+      <c r="P26"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="H27"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="N27"/>
+      <c r="O27" s="3"/>
+      <c r="P27"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4"/>
+      <c r="J28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="N28"/>
+      <c r="O28" s="3"/>
+      <c r="P28"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4"/>
+      <c r="J29" s="9"/>
+      <c r="L29" s="2"/>
+      <c r="N29"/>
+      <c r="O29" s="3"/>
+      <c r="P29"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="2"/>
+      <c r="N30"/>
+      <c r="O30" s="3"/>
+      <c r="P30"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="N31"/>
+      <c r="O31" s="3"/>
+      <c r="P31"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32"/>
+      <c r="G32" s="2"/>
+      <c r="H32"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="2"/>
+      <c r="N32"/>
+      <c r="O32" s="3"/>
+      <c r="P32"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="N33"/>
+      <c r="O33" s="3"/>
+      <c r="P33"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34"/>
+      <c r="G34" s="2"/>
+      <c r="H34"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="N34"/>
+      <c r="O34" s="3"/>
+      <c r="P34"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+      <c r="H35"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="N35"/>
+      <c r="O35" s="3"/>
+      <c r="P35"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="N36"/>
+      <c r="O36" s="3"/>
+      <c r="P36"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="2"/>
+      <c r="N37"/>
+      <c r="O37" s="3"/>
+      <c r="P37"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="9"/>
+      <c r="L38" s="2"/>
+      <c r="N38"/>
+      <c r="O38" s="3"/>
+      <c r="P38"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="4"/>
+      <c r="J39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="N39"/>
+      <c r="O39" s="3"/>
+      <c r="P39"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="2"/>
+      <c r="N40"/>
+      <c r="O40" s="3"/>
+      <c r="P40"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="2"/>
+      <c r="N41"/>
+      <c r="O41" s="3"/>
+      <c r="P41"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="4"/>
+      <c r="J42" s="9"/>
+      <c r="L42" s="2"/>
+      <c r="N42"/>
+      <c r="O42" s="3"/>
+      <c r="P42"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="2"/>
+      <c r="N43"/>
+      <c r="O43" s="3"/>
+      <c r="P43"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="2"/>
+      <c r="N44"/>
+      <c r="O44" s="3"/>
+      <c r="P44"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="4"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="2"/>
+      <c r="N45"/>
+      <c r="O45" s="3"/>
+      <c r="P45"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="4"/>
+      <c r="J46" s="3"/>
+      <c r="L46" s="2"/>
+      <c r="N46"/>
+      <c r="O46" s="3"/>
+      <c r="P46"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="4"/>
+      <c r="J47" s="3"/>
+      <c r="L47" s="2"/>
+      <c r="N47"/>
+      <c r="O47" s="3"/>
+      <c r="P47"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="4"/>
+      <c r="J48" s="3"/>
+      <c r="L48" s="2"/>
+      <c r="N48"/>
+      <c r="O48" s="3"/>
+      <c r="P48"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" s="3"/>
+      <c r="F49"/>
+      <c r="G49" s="2"/>
+      <c r="H49"/>
+      <c r="J49" s="3"/>
+      <c r="L49" s="2"/>
+      <c r="N49"/>
+      <c r="O49" s="3"/>
+      <c r="P49"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="4"/>
+      <c r="J50" s="3"/>
+      <c r="L50" s="2"/>
+      <c r="N50"/>
+      <c r="O50" s="3"/>
+      <c r="P50"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="4"/>
+      <c r="J51" s="3"/>
+      <c r="L51" s="2"/>
+      <c r="N51"/>
+      <c r="O51" s="3"/>
+      <c r="P51"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="4"/>
+      <c r="J52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="N52"/>
+      <c r="O52" s="3"/>
+      <c r="P52"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53"/>
+      <c r="J53" s="3"/>
+      <c r="L53" s="2"/>
+      <c r="N53"/>
+      <c r="O53" s="3"/>
+      <c r="P53"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="4"/>
+      <c r="J54" s="9"/>
+      <c r="L54" s="10"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="3"/>
+      <c r="P54"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55"/>
+      <c r="J55" s="3"/>
+      <c r="L55" s="2"/>
+      <c r="N55"/>
+      <c r="O55" s="3"/>
+      <c r="P55"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="10"/>
+      <c r="H56"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="3"/>
+      <c r="L56" s="2"/>
+      <c r="N56"/>
+      <c r="O56" s="3"/>
+      <c r="P56"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="10"/>
+      <c r="H57"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="3"/>
+      <c r="L57" s="2"/>
+      <c r="N57"/>
+      <c r="O57" s="3"/>
+      <c r="P57"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="4"/>
+      <c r="J58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="N58"/>
+      <c r="O58" s="3"/>
+      <c r="P58"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="2"/>
+      <c r="H59"/>
+      <c r="J59" s="3"/>
+      <c r="L59" s="2"/>
+      <c r="N59"/>
+      <c r="O59" s="3"/>
+      <c r="P59"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="4"/>
+      <c r="J60" s="9"/>
+      <c r="L60" s="2"/>
+      <c r="N60"/>
+      <c r="O60" s="3"/>
+      <c r="P60"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="2"/>
+      <c r="H61"/>
+      <c r="J61" s="3"/>
+      <c r="L61" s="2"/>
+      <c r="N61"/>
+      <c r="O61" s="3"/>
+      <c r="P61"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="4"/>
+      <c r="J62" s="9"/>
+      <c r="L62" s="2"/>
+      <c r="N62"/>
+      <c r="O62" s="3"/>
+      <c r="P62"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2"/>
+      <c r="H63"/>
+      <c r="J63" s="3"/>
+      <c r="L63" s="2"/>
+      <c r="N63"/>
+      <c r="O63" s="3"/>
+      <c r="P63"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="4"/>
+      <c r="J64" s="9"/>
+      <c r="L64" s="2"/>
+      <c r="N64"/>
+      <c r="O64" s="3"/>
+      <c r="P64"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="4"/>
+      <c r="J65" s="3"/>
+      <c r="L65" s="2"/>
+      <c r="N65"/>
+      <c r="O65" s="3"/>
+      <c r="P65"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="4"/>
+      <c r="J66" s="9"/>
+      <c r="L66" s="2"/>
+      <c r="N66"/>
+      <c r="O66" s="3"/>
+      <c r="P66"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="4"/>
+      <c r="J67" s="9"/>
+      <c r="L67" s="10"/>
+      <c r="N67"/>
+      <c r="O67" s="3"/>
+      <c r="P67"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="4"/>
+      <c r="J68" s="9"/>
+      <c r="L68" s="10"/>
+      <c r="N68"/>
+      <c r="O68" s="3"/>
+      <c r="P68"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="4"/>
+      <c r="J69" s="9"/>
+      <c r="L69" s="10"/>
+      <c r="N69"/>
+      <c r="O69" s="3"/>
+      <c r="P69"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="2"/>
+      <c r="H70"/>
+      <c r="J70" s="3"/>
+      <c r="L70" s="2"/>
+      <c r="N70"/>
+      <c r="O70" s="3"/>
+      <c r="P70"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="4"/>
+      <c r="J71" s="3"/>
+      <c r="L71" s="2"/>
+      <c r="N71"/>
+      <c r="O71" s="3"/>
+      <c r="P71"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="4"/>
+      <c r="J72" s="9"/>
+      <c r="L72" s="2"/>
+      <c r="N72"/>
+      <c r="O72" s="3"/>
+      <c r="P72"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="4"/>
+      <c r="J73" s="3"/>
+      <c r="L73" s="2"/>
+      <c r="N73"/>
+      <c r="O73" s="3"/>
+      <c r="P73"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="4"/>
+      <c r="J74" s="9"/>
+      <c r="L74" s="10"/>
+      <c r="N74"/>
+      <c r="O74" s="3"/>
+      <c r="P74"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" s="3"/>
+      <c r="F75"/>
+      <c r="G75" s="2"/>
+      <c r="H75"/>
+      <c r="J75" s="3"/>
+      <c r="L75" s="2"/>
+      <c r="N75"/>
+      <c r="O75" s="3"/>
+      <c r="P75"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="4"/>
+      <c r="J76" s="3"/>
+      <c r="L76" s="2"/>
+      <c r="N76"/>
+      <c r="O76" s="3"/>
+      <c r="P76"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="4"/>
+      <c r="J77" s="9"/>
+      <c r="L77" s="10"/>
+      <c r="N77"/>
+      <c r="O77" s="3"/>
+      <c r="P77"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="2"/>
+      <c r="H78"/>
+      <c r="J78" s="3"/>
+      <c r="L78" s="2"/>
+      <c r="N78"/>
+      <c r="O78" s="3"/>
+      <c r="P78"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="2"/>
+      <c r="H79"/>
+      <c r="J79" s="3"/>
+      <c r="L79" s="2"/>
+      <c r="N79"/>
+      <c r="O79" s="3"/>
+      <c r="P79"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80"/>
+      <c r="G80" s="2"/>
+      <c r="H80"/>
+      <c r="J80" s="3"/>
+      <c r="L80" s="2"/>
+      <c r="N80"/>
+      <c r="O80" s="3"/>
+      <c r="P80"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="4"/>
+      <c r="J81" s="9"/>
+      <c r="L81" s="10"/>
+      <c r="N81"/>
+      <c r="O81" s="3"/>
+      <c r="P81"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="4"/>
+      <c r="J82" s="3"/>
+      <c r="L82" s="2"/>
+      <c r="N82"/>
+      <c r="O82" s="3"/>
+      <c r="P82"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="4"/>
+      <c r="J83" s="9"/>
+      <c r="L83" s="10"/>
+      <c r="N83"/>
+      <c r="O83" s="3"/>
+      <c r="P83"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="4"/>
+      <c r="J84" s="9"/>
+      <c r="L84" s="2"/>
+      <c r="N84"/>
+      <c r="O84" s="3"/>
+      <c r="P84"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="4"/>
+      <c r="J85" s="3"/>
+      <c r="L85" s="2"/>
+      <c r="N85"/>
+      <c r="O85" s="3"/>
+      <c r="P85"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="4"/>
+      <c r="J86" s="9"/>
+      <c r="L86" s="10"/>
+      <c r="N86"/>
+      <c r="O86" s="3"/>
+      <c r="P86"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="4"/>
+      <c r="J87" s="3"/>
+      <c r="L87" s="2"/>
+      <c r="N87"/>
+      <c r="O87" s="3"/>
+      <c r="P87"/>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="4"/>
+      <c r="J88" s="9"/>
+      <c r="L88" s="10"/>
+      <c r="N88"/>
+      <c r="O88" s="3"/>
+      <c r="P88"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3"/>
+      <c r="F89"/>
+      <c r="G89" s="2"/>
+      <c r="H89"/>
+      <c r="J89" s="3"/>
+      <c r="L89" s="2"/>
+      <c r="N89"/>
+      <c r="O89" s="3"/>
+      <c r="P89"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="4"/>
+      <c r="J90" s="9"/>
+      <c r="L90" s="10"/>
+      <c r="N90"/>
+      <c r="O90" s="3"/>
+      <c r="P90"/>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="4"/>
+      <c r="J91" s="3"/>
+      <c r="L91" s="2"/>
+      <c r="N91"/>
+      <c r="O91" s="3"/>
+      <c r="P91"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="2"/>
+      <c r="H92"/>
+      <c r="J92" s="3"/>
+      <c r="L92" s="2"/>
+      <c r="N92"/>
+      <c r="O92" s="3"/>
+      <c r="P92"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="2"/>
+      <c r="H93"/>
+      <c r="J93" s="3"/>
+      <c r="L93" s="2"/>
+      <c r="N93"/>
+      <c r="O93" s="3"/>
+      <c r="P93"/>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="2"/>
+      <c r="H94"/>
+      <c r="J94" s="3"/>
+      <c r="L94" s="2"/>
+      <c r="N94"/>
+      <c r="O94" s="3"/>
+      <c r="P94"/>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="4"/>
+      <c r="J95" s="3"/>
+      <c r="L95" s="2"/>
+      <c r="N95"/>
+      <c r="O95" s="3"/>
+      <c r="P95"/>
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="2"/>
+      <c r="H96"/>
+      <c r="J96" s="3"/>
+      <c r="L96" s="2"/>
+      <c r="N96"/>
+      <c r="O96" s="3"/>
+      <c r="P96"/>
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97"/>
+      <c r="G97" s="2"/>
+      <c r="H97"/>
+      <c r="J97" s="3"/>
+      <c r="L97" s="2"/>
+      <c r="N97"/>
+      <c r="O97" s="3"/>
+      <c r="P97"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="4"/>
+      <c r="J98" s="9"/>
+      <c r="L98" s="2"/>
+      <c r="N98"/>
+      <c r="O98" s="3"/>
+      <c r="P98"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="2"/>
+      <c r="H99"/>
+      <c r="J99" s="3"/>
+      <c r="L99" s="2"/>
+      <c r="N99"/>
+      <c r="O99" s="3"/>
+      <c r="P99"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" s="3"/>
+      <c r="F100"/>
+      <c r="G100" s="2"/>
+      <c r="H100"/>
+      <c r="J100" s="3"/>
+      <c r="L100" s="2"/>
+      <c r="N100"/>
+      <c r="O100" s="3"/>
+      <c r="P100"/>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="2:17">
+      <c r="B101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="4"/>
+      <c r="J101" s="3"/>
+      <c r="L101" s="2"/>
+      <c r="N101"/>
+      <c r="O101" s="3"/>
+      <c r="P101"/>
+      <c r="Q101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7956,515 +12554,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A100"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="16384" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1" customFormat="1"/>
   </sheetData>
+  <sortState ref="A1:B657">
+    <sortCondition ref="B1:B657"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Data_Redundancy.xlsx
+++ b/Data_Redundancy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
   <si>
     <t xml:space="preserve">Assume </t>
   </si>
@@ -408,13 +408,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,6 +450,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -481,7 +486,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1683">
+  <cellStyleXfs count="2579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2165,8 +2170,904 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2176,10 +3077,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1683">
+  <cellStyles count="2579">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3021,6 +3920,454 @@
     <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2578" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3862,6 +5209,454 @@
     <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2577" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4193,8 +5988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4225,6 +6020,18 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
+      <c r="M3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="2:26">
       <c r="B4" t="s">
@@ -10846,6 +12653,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -10861,7 +12669,7 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10943,12 +12751,12 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="F2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="9"/>
+      <c r="H2"/>
+      <c r="J2" s="3"/>
       <c r="L2" s="2"/>
       <c r="N2"/>
       <c r="O2" s="3"/>
@@ -10959,11 +12767,11 @@
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="F3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
+      <c r="H3"/>
       <c r="J3" s="3"/>
       <c r="L3" s="2"/>
       <c r="N3"/>
@@ -10975,12 +12783,12 @@
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="F4"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="9"/>
+      <c r="H4"/>
+      <c r="J4" s="3"/>
       <c r="L4" s="2"/>
       <c r="N4"/>
       <c r="O4" s="3"/>
@@ -10991,9 +12799,9 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="F5"/>
       <c r="G5" s="2"/>
       <c r="H5"/>
       <c r="J5" s="3"/>
@@ -11007,9 +12815,9 @@
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="F6"/>
       <c r="G6" s="2"/>
       <c r="H6"/>
       <c r="J6" s="3"/>
@@ -11023,9 +12831,9 @@
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="F7"/>
       <c r="G7" s="2"/>
       <c r="H7"/>
       <c r="J7" s="3"/>
@@ -11039,12 +12847,12 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="F8"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="J8" s="9"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
       <c r="L8" s="2"/>
       <c r="N8"/>
       <c r="O8" s="3"/>
@@ -11055,9 +12863,9 @@
       <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9"/>
       <c r="G9" s="2"/>
       <c r="H9"/>
       <c r="J9" s="3"/>
@@ -11071,11 +12879,11 @@
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
+      <c r="H10"/>
       <c r="J10" s="3"/>
       <c r="L10" s="2"/>
       <c r="N10"/>
@@ -11087,13 +12895,13 @@
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="F11"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="2"/>
       <c r="N11"/>
       <c r="O11" s="3"/>
       <c r="P11"/>
@@ -11103,9 +12911,9 @@
       <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12"/>
       <c r="G12" s="2"/>
       <c r="H12"/>
       <c r="J12" s="3"/>
@@ -11119,9 +12927,9 @@
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="F13"/>
       <c r="G13" s="2"/>
       <c r="H13"/>
       <c r="J13" s="3"/>
@@ -11135,12 +12943,12 @@
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="F14"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="9"/>
+      <c r="H14"/>
+      <c r="J14" s="3"/>
       <c r="L14" s="2"/>
       <c r="N14"/>
       <c r="O14" s="3"/>
@@ -11151,14 +12959,14 @@
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="F15"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="N15" s="4"/>
+      <c r="H15"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="N15"/>
       <c r="O15" s="3"/>
       <c r="P15"/>
       <c r="Q15" s="2"/>
@@ -11167,9 +12975,9 @@
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="F16"/>
       <c r="G16" s="2"/>
       <c r="H16"/>
       <c r="J16" s="3"/>
@@ -11183,12 +12991,12 @@
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="F17"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="9"/>
+      <c r="H17"/>
+      <c r="J17" s="3"/>
       <c r="L17" s="2"/>
       <c r="N17"/>
       <c r="O17" s="3"/>
@@ -11199,7 +13007,7 @@
       <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18"/>
       <c r="E18" s="3"/>
       <c r="F18"/>
       <c r="G18" s="2"/>
@@ -11215,12 +13023,12 @@
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
+      <c r="F19"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="9"/>
+      <c r="H19"/>
+      <c r="J19" s="3"/>
       <c r="L19" s="2"/>
       <c r="N19"/>
       <c r="O19" s="3"/>
@@ -11231,12 +13039,12 @@
       <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="F20"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="J20" s="9"/>
+      <c r="H20"/>
+      <c r="J20" s="3"/>
       <c r="L20" s="2"/>
       <c r="N20"/>
       <c r="O20" s="3"/>
@@ -11247,11 +13055,11 @@
       <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="F21"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
+      <c r="H21"/>
       <c r="J21" s="3"/>
       <c r="L21" s="2"/>
       <c r="N21"/>
@@ -11263,7 +13071,7 @@
       <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22"/>
       <c r="E22" s="3"/>
       <c r="F22"/>
       <c r="G22" s="2"/>
@@ -11279,9 +13087,9 @@
       <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="F23"/>
       <c r="G23" s="2"/>
       <c r="H23"/>
       <c r="J23" s="3"/>
@@ -11295,9 +13103,9 @@
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="F24"/>
       <c r="G24" s="2"/>
       <c r="H24"/>
       <c r="J24" s="3"/>
@@ -11311,12 +13119,12 @@
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="F25"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-      <c r="J25" s="9"/>
+      <c r="H25"/>
+      <c r="J25" s="3"/>
       <c r="L25" s="2"/>
       <c r="N25"/>
       <c r="O25" s="3"/>
@@ -11327,9 +13135,9 @@
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+      <c r="F26"/>
       <c r="G26" s="2"/>
       <c r="H26"/>
       <c r="J26" s="3"/>
@@ -11343,9 +13151,9 @@
       <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="F27"/>
       <c r="G27" s="2"/>
       <c r="H27"/>
       <c r="J27" s="3"/>
@@ -11359,13 +13167,13 @@
       <c r="B28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="F28"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-      <c r="J28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="H28"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="N28"/>
       <c r="O28" s="3"/>
       <c r="P28"/>
@@ -11375,12 +13183,12 @@
       <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
+      <c r="F29"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-      <c r="J29" s="9"/>
+      <c r="H29"/>
+      <c r="J29" s="3"/>
       <c r="L29" s="2"/>
       <c r="N29"/>
       <c r="O29" s="3"/>
@@ -11391,9 +13199,9 @@
       <c r="B30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="F30"/>
       <c r="G30" s="2"/>
       <c r="H30"/>
       <c r="J30" s="3"/>
@@ -11407,9 +13215,9 @@
       <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="F31"/>
       <c r="G31" s="2"/>
       <c r="H31"/>
       <c r="J31" s="3"/>
@@ -11423,7 +13231,7 @@
       <c r="B32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32"/>
       <c r="E32" s="3"/>
       <c r="F32"/>
       <c r="G32" s="2"/>
@@ -11439,11 +13247,11 @@
       <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="F33"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
+      <c r="H33"/>
       <c r="J33" s="3"/>
       <c r="L33" s="2"/>
       <c r="N33"/>
@@ -11455,7 +13263,7 @@
       <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34"/>
       <c r="E34" s="3"/>
       <c r="F34"/>
       <c r="G34" s="2"/>
@@ -11471,9 +13279,9 @@
       <c r="B35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="F35"/>
       <c r="G35" s="2"/>
       <c r="H35"/>
       <c r="J35" s="3"/>
@@ -11487,9 +13295,9 @@
       <c r="B36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="F36"/>
       <c r="G36" s="2"/>
       <c r="H36"/>
       <c r="J36" s="3"/>
@@ -11503,9 +13311,9 @@
       <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
+      <c r="F37"/>
       <c r="G37" s="2"/>
       <c r="H37"/>
       <c r="J37" s="3"/>
@@ -11519,12 +13327,12 @@
       <c r="B38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
+      <c r="F38"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="4"/>
-      <c r="J38" s="9"/>
+      <c r="H38"/>
+      <c r="J38" s="3"/>
       <c r="L38" s="2"/>
       <c r="N38"/>
       <c r="O38" s="3"/>
@@ -11535,13 +13343,13 @@
       <c r="B39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
+      <c r="F39"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-      <c r="J39" s="9"/>
-      <c r="L39" s="10"/>
+      <c r="H39"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="2"/>
       <c r="N39"/>
       <c r="O39" s="3"/>
       <c r="P39"/>
@@ -11551,11 +13359,11 @@
       <c r="B40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
+      <c r="F40"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
+      <c r="H40"/>
       <c r="J40" s="3"/>
       <c r="L40" s="2"/>
       <c r="N40"/>
@@ -11567,9 +13375,9 @@
       <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
+      <c r="F41"/>
       <c r="G41" s="2"/>
       <c r="H41"/>
       <c r="J41" s="3"/>
@@ -11583,12 +13391,12 @@
       <c r="B42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
+      <c r="F42"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="4"/>
-      <c r="J42" s="9"/>
+      <c r="H42"/>
+      <c r="J42" s="3"/>
       <c r="L42" s="2"/>
       <c r="N42"/>
       <c r="O42" s="3"/>
@@ -11599,11 +13407,11 @@
       <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
+      <c r="F43"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="4"/>
+      <c r="H43"/>
       <c r="J43" s="3"/>
       <c r="L43" s="2"/>
       <c r="N43"/>
@@ -11615,11 +13423,11 @@
       <c r="B44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
+      <c r="F44"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
+      <c r="H44"/>
       <c r="J44" s="3"/>
       <c r="L44" s="2"/>
       <c r="N44"/>
@@ -11631,11 +13439,11 @@
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
+      <c r="F45"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
+      <c r="H45"/>
       <c r="J45" s="3"/>
       <c r="L45" s="2"/>
       <c r="N45"/>
@@ -11647,11 +13455,11 @@
       <c r="B46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
+      <c r="F46"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
+      <c r="H46"/>
       <c r="J46" s="3"/>
       <c r="L46" s="2"/>
       <c r="N46"/>
@@ -11663,11 +13471,11 @@
       <c r="B47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
+      <c r="F47"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
+      <c r="H47"/>
       <c r="J47" s="3"/>
       <c r="L47" s="2"/>
       <c r="N47"/>
@@ -11679,11 +13487,11 @@
       <c r="B48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
+      <c r="F48"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
+      <c r="H48"/>
       <c r="J48" s="3"/>
       <c r="L48" s="2"/>
       <c r="N48"/>
@@ -11711,11 +13519,11 @@
       <c r="B50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
+      <c r="F50"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
+      <c r="H50"/>
       <c r="J50" s="3"/>
       <c r="L50" s="2"/>
       <c r="N50"/>
@@ -11727,11 +13535,11 @@
       <c r="B51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
+      <c r="F51"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
+      <c r="H51"/>
       <c r="J51" s="3"/>
       <c r="L51" s="2"/>
       <c r="N51"/>
@@ -11743,11 +13551,11 @@
       <c r="B52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
+      <c r="F52"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
+      <c r="H52"/>
       <c r="J52" s="3"/>
       <c r="L52" s="2"/>
       <c r="N52"/>
@@ -11759,9 +13567,9 @@
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
+      <c r="F53"/>
       <c r="G53" s="2"/>
       <c r="H53"/>
       <c r="J53" s="3"/>
@@ -11775,14 +13583,14 @@
       <c r="B54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
+      <c r="F54"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
-      <c r="J54" s="9"/>
-      <c r="L54" s="10"/>
-      <c r="N54" s="4"/>
+      <c r="H54"/>
+      <c r="J54" s="3"/>
+      <c r="L54" s="2"/>
+      <c r="N54"/>
       <c r="O54" s="3"/>
       <c r="P54"/>
       <c r="Q54" s="2"/>
@@ -11791,9 +13599,9 @@
       <c r="B55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
+      <c r="F55"/>
       <c r="G55" s="2"/>
       <c r="H55"/>
       <c r="J55" s="3"/>
@@ -11807,12 +13615,11 @@
       <c r="B56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="10"/>
+      <c r="F56"/>
+      <c r="G56" s="2"/>
       <c r="H56"/>
-      <c r="I56" s="4"/>
       <c r="J56" s="3"/>
       <c r="L56" s="2"/>
       <c r="N56"/>
@@ -11824,12 +13631,11 @@
       <c r="B57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="10"/>
+      <c r="F57"/>
+      <c r="G57" s="2"/>
       <c r="H57"/>
-      <c r="I57" s="4"/>
       <c r="J57" s="3"/>
       <c r="L57" s="2"/>
       <c r="N57"/>
@@ -11841,13 +13647,13 @@
       <c r="B58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
+      <c r="F58"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="J58" s="9"/>
-      <c r="L58" s="10"/>
+      <c r="H58"/>
+      <c r="J58" s="3"/>
+      <c r="L58" s="2"/>
       <c r="N58"/>
       <c r="O58" s="3"/>
       <c r="P58"/>
@@ -11857,9 +13663,9 @@
       <c r="B59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
+      <c r="F59"/>
       <c r="G59" s="2"/>
       <c r="H59"/>
       <c r="J59" s="3"/>
@@ -11873,12 +13679,12 @@
       <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
+      <c r="F60"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
-      <c r="J60" s="9"/>
+      <c r="H60"/>
+      <c r="J60" s="3"/>
       <c r="L60" s="2"/>
       <c r="N60"/>
       <c r="O60" s="3"/>
@@ -11889,9 +13695,9 @@
       <c r="B61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
+      <c r="F61"/>
       <c r="G61" s="2"/>
       <c r="H61"/>
       <c r="J61" s="3"/>
@@ -11905,12 +13711,12 @@
       <c r="B62" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
+      <c r="F62"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="4"/>
-      <c r="J62" s="9"/>
+      <c r="H62"/>
+      <c r="J62" s="3"/>
       <c r="L62" s="2"/>
       <c r="N62"/>
       <c r="O62" s="3"/>
@@ -11921,9 +13727,9 @@
       <c r="B63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
+      <c r="F63"/>
       <c r="G63" s="2"/>
       <c r="H63"/>
       <c r="J63" s="3"/>
@@ -11937,12 +13743,12 @@
       <c r="B64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
+      <c r="F64"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="4"/>
-      <c r="J64" s="9"/>
+      <c r="H64"/>
+      <c r="J64" s="3"/>
       <c r="L64" s="2"/>
       <c r="N64"/>
       <c r="O64" s="3"/>
@@ -11953,11 +13759,11 @@
       <c r="B65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
+      <c r="F65"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
+      <c r="H65"/>
       <c r="J65" s="3"/>
       <c r="L65" s="2"/>
       <c r="N65"/>
@@ -11969,12 +13775,12 @@
       <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
+      <c r="F66"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
-      <c r="J66" s="9"/>
+      <c r="H66"/>
+      <c r="J66" s="3"/>
       <c r="L66" s="2"/>
       <c r="N66"/>
       <c r="O66" s="3"/>
@@ -11985,13 +13791,13 @@
       <c r="B67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
+      <c r="F67"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="4"/>
-      <c r="J67" s="9"/>
-      <c r="L67" s="10"/>
+      <c r="H67"/>
+      <c r="J67" s="3"/>
+      <c r="L67" s="2"/>
       <c r="N67"/>
       <c r="O67" s="3"/>
       <c r="P67"/>
@@ -12001,13 +13807,13 @@
       <c r="B68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
+      <c r="F68"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="4"/>
-      <c r="J68" s="9"/>
-      <c r="L68" s="10"/>
+      <c r="H68"/>
+      <c r="J68" s="3"/>
+      <c r="L68" s="2"/>
       <c r="N68"/>
       <c r="O68" s="3"/>
       <c r="P68"/>
@@ -12017,13 +13823,13 @@
       <c r="B69" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
+      <c r="F69"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="4"/>
-      <c r="J69" s="9"/>
-      <c r="L69" s="10"/>
+      <c r="H69"/>
+      <c r="J69" s="3"/>
+      <c r="L69" s="2"/>
       <c r="N69"/>
       <c r="O69" s="3"/>
       <c r="P69"/>
@@ -12033,9 +13839,9 @@
       <c r="B70" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
+      <c r="F70"/>
       <c r="G70" s="2"/>
       <c r="H70"/>
       <c r="J70" s="3"/>
@@ -12049,11 +13855,11 @@
       <c r="B71" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
+      <c r="F71"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
+      <c r="H71"/>
       <c r="J71" s="3"/>
       <c r="L71" s="2"/>
       <c r="N71"/>
@@ -12065,12 +13871,12 @@
       <c r="B72" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
+      <c r="F72"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
-      <c r="J72" s="9"/>
+      <c r="H72"/>
+      <c r="J72" s="3"/>
       <c r="L72" s="2"/>
       <c r="N72"/>
       <c r="O72" s="3"/>
@@ -12081,11 +13887,11 @@
       <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
+      <c r="F73"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="4"/>
+      <c r="H73"/>
       <c r="J73" s="3"/>
       <c r="L73" s="2"/>
       <c r="N73"/>
@@ -12097,13 +13903,13 @@
       <c r="B74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
+      <c r="F74"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
-      <c r="J74" s="9"/>
-      <c r="L74" s="10"/>
+      <c r="H74"/>
+      <c r="J74" s="3"/>
+      <c r="L74" s="2"/>
       <c r="N74"/>
       <c r="O74" s="3"/>
       <c r="P74"/>
@@ -12129,11 +13935,11 @@
       <c r="B76" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
+      <c r="F76"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="4"/>
+      <c r="H76"/>
       <c r="J76" s="3"/>
       <c r="L76" s="2"/>
       <c r="N76"/>
@@ -12145,13 +13951,13 @@
       <c r="B77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
+      <c r="F77"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="4"/>
-      <c r="J77" s="9"/>
-      <c r="L77" s="10"/>
+      <c r="H77"/>
+      <c r="J77" s="3"/>
+      <c r="L77" s="2"/>
       <c r="N77"/>
       <c r="O77" s="3"/>
       <c r="P77"/>
@@ -12161,9 +13967,9 @@
       <c r="B78" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
+      <c r="F78"/>
       <c r="G78" s="2"/>
       <c r="H78"/>
       <c r="J78" s="3"/>
@@ -12177,9 +13983,9 @@
       <c r="B79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
+      <c r="F79"/>
       <c r="G79" s="2"/>
       <c r="H79"/>
       <c r="J79" s="3"/>
@@ -12193,7 +13999,7 @@
       <c r="B80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80"/>
       <c r="E80" s="3"/>
       <c r="F80"/>
       <c r="G80" s="2"/>
@@ -12209,13 +14015,13 @@
       <c r="B81" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
+      <c r="F81"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="4"/>
-      <c r="J81" s="9"/>
-      <c r="L81" s="10"/>
+      <c r="H81"/>
+      <c r="J81" s="3"/>
+      <c r="L81" s="2"/>
       <c r="N81"/>
       <c r="O81" s="3"/>
       <c r="P81"/>
@@ -12225,11 +14031,11 @@
       <c r="B82" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
+      <c r="F82"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="4"/>
+      <c r="H82"/>
       <c r="J82" s="3"/>
       <c r="L82" s="2"/>
       <c r="N82"/>
@@ -12241,13 +14047,13 @@
       <c r="B83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
+      <c r="F83"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="4"/>
-      <c r="J83" s="9"/>
-      <c r="L83" s="10"/>
+      <c r="H83"/>
+      <c r="J83" s="3"/>
+      <c r="L83" s="2"/>
       <c r="N83"/>
       <c r="O83" s="3"/>
       <c r="P83"/>
@@ -12257,12 +14063,12 @@
       <c r="B84" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
+      <c r="F84"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
-      <c r="J84" s="9"/>
+      <c r="H84"/>
+      <c r="J84" s="3"/>
       <c r="L84" s="2"/>
       <c r="N84"/>
       <c r="O84" s="3"/>
@@ -12273,11 +14079,11 @@
       <c r="B85" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
+      <c r="F85"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="4"/>
+      <c r="H85"/>
       <c r="J85" s="3"/>
       <c r="L85" s="2"/>
       <c r="N85"/>
@@ -12289,13 +14095,13 @@
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
+      <c r="F86"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="4"/>
-      <c r="J86" s="9"/>
-      <c r="L86" s="10"/>
+      <c r="H86"/>
+      <c r="J86" s="3"/>
+      <c r="L86" s="2"/>
       <c r="N86"/>
       <c r="O86" s="3"/>
       <c r="P86"/>
@@ -12305,11 +14111,11 @@
       <c r="B87" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
+      <c r="F87"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
+      <c r="H87"/>
       <c r="J87" s="3"/>
       <c r="L87" s="2"/>
       <c r="N87"/>
@@ -12321,13 +14127,13 @@
       <c r="B88" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
+      <c r="F88"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="4"/>
-      <c r="J88" s="9"/>
-      <c r="L88" s="10"/>
+      <c r="H88"/>
+      <c r="J88" s="3"/>
+      <c r="L88" s="2"/>
       <c r="N88"/>
       <c r="O88" s="3"/>
       <c r="P88"/>
@@ -12337,7 +14143,7 @@
       <c r="B89" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89"/>
       <c r="E89" s="3"/>
       <c r="F89"/>
       <c r="G89" s="2"/>
@@ -12353,13 +14159,13 @@
       <c r="B90" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
+      <c r="F90"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="4"/>
-      <c r="J90" s="9"/>
-      <c r="L90" s="10"/>
+      <c r="H90"/>
+      <c r="J90" s="3"/>
+      <c r="L90" s="2"/>
       <c r="N90"/>
       <c r="O90" s="3"/>
       <c r="P90"/>
@@ -12369,11 +14175,11 @@
       <c r="B91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
+      <c r="F91"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="4"/>
+      <c r="H91"/>
       <c r="J91" s="3"/>
       <c r="L91" s="2"/>
       <c r="N91"/>
@@ -12385,9 +14191,9 @@
       <c r="B92" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
+      <c r="F92"/>
       <c r="G92" s="2"/>
       <c r="H92"/>
       <c r="J92" s="3"/>
@@ -12401,9 +14207,9 @@
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
+      <c r="F93"/>
       <c r="G93" s="2"/>
       <c r="H93"/>
       <c r="J93" s="3"/>
@@ -12417,9 +14223,9 @@
       <c r="B94" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
+      <c r="F94"/>
       <c r="G94" s="2"/>
       <c r="H94"/>
       <c r="J94" s="3"/>
@@ -12433,11 +14239,11 @@
       <c r="B95" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
+      <c r="F95"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="4"/>
+      <c r="H95"/>
       <c r="J95" s="3"/>
       <c r="L95" s="2"/>
       <c r="N95"/>
@@ -12449,9 +14255,9 @@
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
+      <c r="F96"/>
       <c r="G96" s="2"/>
       <c r="H96"/>
       <c r="J96" s="3"/>
@@ -12465,7 +14271,7 @@
       <c r="B97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97"/>
       <c r="E97" s="3"/>
       <c r="F97"/>
       <c r="G97" s="2"/>
@@ -12481,12 +14287,12 @@
       <c r="B98" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
+      <c r="F98"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="4"/>
-      <c r="J98" s="9"/>
+      <c r="H98"/>
+      <c r="J98" s="3"/>
       <c r="L98" s="2"/>
       <c r="N98"/>
       <c r="O98" s="3"/>
@@ -12497,9 +14303,9 @@
       <c r="B99" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
+      <c r="F99"/>
       <c r="G99" s="2"/>
       <c r="H99"/>
       <c r="J99" s="3"/>
@@ -12529,11 +14335,11 @@
       <c r="B101" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
+      <c r="F101"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="4"/>
+      <c r="H101"/>
       <c r="J101" s="3"/>
       <c r="L101" s="2"/>
       <c r="N101"/>
@@ -12554,10 +14360,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12565,10 +14371,109 @@
     <col min="3" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" spans="3:100" customFormat="1">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+    </row>
   </sheetData>
-  <sortState ref="A1:B657">
-    <sortCondition ref="B1:B657"/>
+  <sortState ref="A1:B720">
+    <sortCondition ref="B1:B720"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
